--- a/biology/Botanique/Geranium_columbinum/Geranium_columbinum.xlsx
+++ b/biology/Botanique/Geranium_columbinum/Geranium_columbinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium columbinum
-Le Géranium colombin (Geranium columbinum) est une espèce de plante de la famille des Géraniacées nommée communément pied-de-pigeon, Géranium des colombes, et Long-stalked Crane's-bill en Anglais[1].
+Le Géranium colombin (Geranium columbinum) est une espèce de plante de la famille des Géraniacées nommée communément pied-de-pigeon, Géranium des colombes, et Long-stalked Crane's-bill en Anglais.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée (15 à 50 cm de haut) à feuilles très découpées, jusqu'au pétiole.
 </t>
@@ -545,18 +559,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : roses purpurines, large de 15 à 20 mm dont les 5 pétales sont aussi long que les sépales terminés par une longue arête et 10 étamines à filet glabre.
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : roses purpurines, large de 15 à 20 mm dont les 5 pétales sont aussi long que les sépales terminés par une longue arête et 10 étamines à filet glabre.
 Période de floraison : mars-septembre
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Fruit : schizocarpe formé de 5 méricarpes lisses et glabres.
-Dissémination : épizoochore
-Habitat et répartition
-Cette espèce se rencontre dans les bois et aux lisières, dans les haies et au bord des chemins.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geranium_columbinum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_columbinum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les bois et aux lisières, dans les haies et au bord des chemins.
 Elle préfère les sols calcaires.
-De répartition dite eurasiatique, le Géranium colombin est retrouvé sur toute l'Europe, jusqu'au nord de l'Irlande[2], l'Asie occidentale et l'Afrique septentrionale, il est commun dans toute la France dont la Corse, en dessous de 500 m, mais l'inventaire national du patrimoine naturel n'a pas réussi dernièrement à le recenser dans tous les départements[3],[4].
+De répartition dite eurasiatique, le Géranium colombin est retrouvé sur toute l'Europe, jusqu'au nord de l'Irlande, l'Asie occidentale et l'Afrique septentrionale, il est commun dans toute la France dont la Corse, en dessous de 500 m, mais l'inventaire national du patrimoine naturel n'a pas réussi dernièrement à le recenser dans tous les départements,.
 </t>
         </is>
       </c>
